--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="149">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,351 +40,378 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>worse</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>sick</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>uncertainty</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>ref</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>pressure</t>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
     <t>affected</t>
   </si>
   <si>
+    <t>saudi</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>better</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>god</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>yes</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>kind</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>super</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>share</t>
+    <t>security</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>easter</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>give</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -394,12 +421,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
@@ -409,13 +430,37 @@
     <t>keep</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>to</t>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -773,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -781,10 +826,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -842,13 +887,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -860,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -913,7 +958,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K4">
         <v>0.9583333333333334</v>
@@ -942,13 +987,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.918918918918919</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -960,31 +1005,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L5">
+        <v>56</v>
+      </c>
+      <c r="M5">
+        <v>56</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="L5">
-        <v>44</v>
-      </c>
-      <c r="M5">
-        <v>44</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -992,13 +1037,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9130434782608695</v>
+        <v>0.88</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1010,31 +1055,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L6">
+        <v>31</v>
+      </c>
+      <c r="M6">
+        <v>31</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L6">
-        <v>56</v>
-      </c>
-      <c r="M6">
-        <v>56</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1042,13 +1087,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1063,16 +1108,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1092,13 +1137,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1110,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1142,13 +1187,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1160,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1184,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1192,13 +1237,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1210,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K10">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1234,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1242,13 +1287,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8527397260273972</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C11">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1260,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1284,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1295,10 +1340,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1310,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K12">
-        <v>0.9112271540469974</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L12">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M12">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1334,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1363,16 +1408,16 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1392,13 +1437,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8181818181818182</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1410,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K14">
-        <v>0.9069767441860465</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1434,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1442,13 +1487,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7948717948717948</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1460,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K15">
-        <v>0.8947368421052632</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1492,49 +1537,49 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7894736842105263</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16">
+        <v>0.8828125</v>
+      </c>
+      <c r="L16">
+        <v>113</v>
+      </c>
+      <c r="M16">
+        <v>113</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>15</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16">
-        <v>100</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1542,13 +1587,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7419354838709677</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1560,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K17">
-        <v>0.8867924528301887</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L17">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1584,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1592,13 +1637,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7391304347826086</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1610,31 +1655,31 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="L18">
+        <v>41</v>
+      </c>
+      <c r="M18">
+        <v>41</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>6</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18">
-        <v>0.8802816901408451</v>
-      </c>
-      <c r="L18">
-        <v>125</v>
-      </c>
-      <c r="M18">
-        <v>125</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1642,13 +1687,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7368421052631579</v>
+        <v>0.725</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1660,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K19">
-        <v>0.875</v>
+        <v>0.8625</v>
       </c>
       <c r="L19">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="M19">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1684,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1692,7 +1737,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7333333333333333</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C20">
         <v>22</v>
@@ -1710,31 +1755,31 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <v>50</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>8</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20">
-        <v>0.875</v>
-      </c>
-      <c r="L20">
-        <v>140</v>
-      </c>
-      <c r="M20">
-        <v>140</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1742,13 +1787,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7307692307692307</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1760,19 +1805,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K21">
-        <v>0.8723404255319149</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1784,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1792,13 +1837,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.725</v>
+        <v>0.6724806201550387</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>347</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>347</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1810,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K22">
-        <v>0.8620689655172413</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1834,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1842,13 +1887,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7083333333333334</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1860,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K23">
-        <v>0.8536585365853658</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L23">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="M23">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1884,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1892,13 +1937,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7073643410852714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C24">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1910,19 +1955,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K24">
-        <v>0.8333333333333334</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1934,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1942,13 +1987,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1960,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K25">
-        <v>0.8253968253968254</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1984,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1992,13 +2037,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6862745098039216</v>
+        <v>0.65</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2010,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K26">
-        <v>0.8214285714285714</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2034,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2042,13 +2087,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.671957671957672</v>
+        <v>0.65</v>
       </c>
       <c r="C27">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2060,19 +2105,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K27">
-        <v>0.8205128205128205</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2092,13 +2137,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.65625</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2110,19 +2155,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K28">
-        <v>0.8</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2134,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2163,7 +2208,7 @@
         <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K29">
         <v>0.7916666666666666</v>
@@ -2192,13 +2237,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6174496644295302</v>
+        <v>0.625</v>
       </c>
       <c r="C30">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2210,19 +2255,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K30">
-        <v>0.7894736842105263</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2234,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2242,13 +2287,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6101694915254238</v>
+        <v>0.625</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2260,19 +2305,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K31">
-        <v>0.7777777777777778</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2284,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2292,13 +2337,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6086956521739131</v>
+        <v>0.6174496644295302</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2310,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K32">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2334,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2342,13 +2387,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5909090909090909</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2360,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K33">
-        <v>0.75</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2384,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2413,16 +2458,16 @@
         <v>149</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2434,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2463,7 +2508,7 @@
         <v>13</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K35">
         <v>0.75</v>
@@ -2492,13 +2537,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5675675675675675</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2510,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K36">
         <v>0.75</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2534,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2542,13 +2587,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5636363636363636</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2560,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K37">
-        <v>0.7470588235294118</v>
+        <v>0.75</v>
       </c>
       <c r="L37">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2584,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>86</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2613,16 +2658,16 @@
         <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K38">
-        <v>0.7196652719665272</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L38">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2634,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2642,13 +2687,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5384615384615384</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2660,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K39">
-        <v>0.7142857142857143</v>
+        <v>0.74</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2684,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2692,13 +2737,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5185185185185185</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2710,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K40">
-        <v>0.7083333333333334</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L40">
         <v>17</v>
@@ -2734,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2742,37 +2787,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4933333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C41">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K41">
-        <v>0.6923076923076923</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L41">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="M41">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2784,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2792,13 +2837,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4821428571428572</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2810,19 +2855,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K42">
-        <v>0.6818181818181818</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2834,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2842,13 +2887,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4814814814814815</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2860,19 +2905,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K43">
-        <v>0.6813559322033899</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L43">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2884,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2892,13 +2937,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4545454545454545</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2910,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K44">
-        <v>0.68</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L44">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="M44">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2934,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2942,13 +2987,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4333333333333333</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2963,16 +3008,16 @@
         <v>17</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K45">
-        <v>0.6666666666666666</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L45">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2984,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3013,16 +3058,16 @@
         <v>18</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K46">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3034,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3063,16 +3108,16 @@
         <v>22</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K47">
-        <v>0.651685393258427</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L47">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3084,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3092,13 +3137,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3111111111111111</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3110,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K48">
-        <v>0.648936170212766</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L48">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3134,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3142,13 +3187,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2896825396825397</v>
+        <v>0.375</v>
       </c>
       <c r="C49">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3160,19 +3205,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K49">
-        <v>0.6296296296296297</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3184,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3192,13 +3237,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2597402597402597</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3210,19 +3255,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K50">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3234,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3242,13 +3287,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.225</v>
+        <v>0.3253968253968254</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3260,19 +3305,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K51">
-        <v>0.6222222222222222</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3284,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3292,13 +3337,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1769436997319035</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C52">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3310,19 +3355,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K52">
-        <v>0.5857142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L52">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3334,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3342,13 +3387,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.008399440037330844</v>
+        <v>0.1876675603217158</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3360,19 +3405,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>2125</v>
+        <v>303</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K53">
-        <v>0.5714285714285714</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3384,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3392,37 +3437,37 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.006734006734006734</v>
+        <v>0.08</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E54">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>2360</v>
+        <v>276</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K54">
-        <v>0.5652173913043478</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3434,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3442,37 +3487,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.005475040257648953</v>
+        <v>0.01589103291713961</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F55">
-        <v>0.89</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>3088</v>
+        <v>867</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K55">
-        <v>0.5652173913043478</v>
+        <v>0.59375</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3484,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3492,37 +3537,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003212206384260189</v>
+        <v>0.01294219154443486</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E56">
-        <v>0.48</v>
+        <v>0.12</v>
       </c>
       <c r="F56">
-        <v>0.52</v>
+        <v>0.88</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>4965</v>
+        <v>1144</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K56">
-        <v>0.5483870967741935</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3534,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3542,63 +3587,87 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003108003108003108</v>
+        <v>0.01127940702545923</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E57">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="F57">
-        <v>0.48</v>
+        <v>0.9</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>5132</v>
+        <v>3068</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K57">
-        <v>0.5416666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L57">
+        <v>26</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.01023622047244094</v>
+      </c>
+      <c r="C58">
         <v>13</v>
       </c>
-      <c r="M57">
-        <v>13</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="D58">
+        <v>32</v>
+      </c>
+      <c r="E58">
+        <v>0.59</v>
+      </c>
+      <c r="F58">
+        <v>0.41</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1257</v>
+      </c>
       <c r="J58" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K58">
-        <v>0.5416666666666666</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3614,17 +3683,41 @@
       </c>
     </row>
     <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.009692372524230931</v>
+      </c>
+      <c r="C59">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>29</v>
+      </c>
+      <c r="E59">
+        <v>0.21</v>
+      </c>
+      <c r="F59">
+        <v>0.79</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2350</v>
+      </c>
       <c r="J59" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K59">
-        <v>0.5384615384615384</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3636,21 +3729,45 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.007947639083683964</v>
+      </c>
+      <c r="C60">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>21</v>
+      </c>
+      <c r="E60">
+        <v>0.19</v>
+      </c>
+      <c r="F60">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>2122</v>
+      </c>
       <c r="J60" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K60">
-        <v>0.5342465753424658</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L60">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3662,21 +3779,45 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.005642361111111111</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>0.28</v>
+      </c>
+      <c r="F61">
+        <v>0.72</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2291</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K61">
         <v>0.5</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3688,21 +3829,45 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:17">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.004172461752433936</v>
+      </c>
+      <c r="C62">
+        <v>18</v>
+      </c>
+      <c r="D62">
+        <v>32</v>
+      </c>
+      <c r="E62">
+        <v>0.44</v>
+      </c>
+      <c r="F62">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>4296</v>
+      </c>
       <c r="J62" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K62">
-        <v>0.4871794871794872</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L62">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M62">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3714,21 +3879,45 @@
         <v>0</v>
       </c>
       <c r="Q62">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.003887269193391642</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="E63">
+        <v>0.5</v>
+      </c>
+      <c r="F63">
+        <v>0.5</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>5125</v>
+      </c>
       <c r="J63" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K63">
-        <v>0.4705882352941176</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3740,21 +3929,45 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:17">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.003824476650563607</v>
+      </c>
+      <c r="C64">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>47</v>
+      </c>
+      <c r="E64">
+        <v>0.6</v>
+      </c>
+      <c r="F64">
+        <v>0.4</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>4949</v>
+      </c>
       <c r="J64" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K64">
-        <v>0.456140350877193</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L64">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3766,21 +3979,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K65">
-        <v>0.453125</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L65">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M65">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3792,21 +4005,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K66">
-        <v>0.3770491803278688</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3818,21 +4031,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K67">
-        <v>0.3728813559322034</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L67">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3844,47 +4057,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K68">
-        <v>0.1759259259259259</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M68">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N68">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="O68">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K69">
-        <v>0.1209677419354839</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3896,137 +4109,397 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K70">
-        <v>0.01668056713928273</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N70">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1179</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K71">
-        <v>0.006746626686656672</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="L71">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M71">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N71">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>2650</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="K72">
-        <v>0.003473026163463765</v>
+        <v>0.03357314148681055</v>
       </c>
       <c r="L72">
+        <v>14</v>
+      </c>
+      <c r="M72">
         <v>15</v>
       </c>
-      <c r="M72">
-        <v>24</v>
-      </c>
       <c r="N72">
-        <v>0.62</v>
+        <v>0.93</v>
       </c>
       <c r="O72">
-        <v>0.38</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>4304</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="K73">
-        <v>0.003301611963488056</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N73">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="O73">
-        <v>0.48</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>5132</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="K74">
-        <v>0.003012048192771084</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M74">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N74">
-        <v>0.48</v>
+        <v>0.91</v>
       </c>
       <c r="O74">
-        <v>0.52</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>4965</v>
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K75">
+        <v>0.03125</v>
+      </c>
+      <c r="L75">
+        <v>13</v>
+      </c>
+      <c r="M75">
+        <v>13</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K76">
+        <v>0.01489028213166144</v>
+      </c>
+      <c r="L76">
+        <v>19</v>
+      </c>
+      <c r="M76">
+        <v>32</v>
+      </c>
+      <c r="N76">
+        <v>0.59</v>
+      </c>
+      <c r="O76">
+        <v>0.41</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K77">
+        <v>0.01072555205047319</v>
+      </c>
+      <c r="L77">
+        <v>17</v>
+      </c>
+      <c r="M77">
+        <v>26</v>
+      </c>
+      <c r="N77">
+        <v>0.65</v>
+      </c>
+      <c r="O77">
+        <v>0.35</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K78">
+        <v>0.009752438109527382</v>
+      </c>
+      <c r="L78">
+        <v>26</v>
+      </c>
+      <c r="M78">
+        <v>33</v>
+      </c>
+      <c r="N78">
+        <v>0.79</v>
+      </c>
+      <c r="O78">
+        <v>0.21</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K79">
+        <v>0.006896551724137931</v>
+      </c>
+      <c r="L79">
+        <v>22</v>
+      </c>
+      <c r="M79">
+        <v>33</v>
+      </c>
+      <c r="N79">
+        <v>0.67</v>
+      </c>
+      <c r="O79">
+        <v>0.33</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K80">
+        <v>0.006691760769552488</v>
+      </c>
+      <c r="L80">
+        <v>16</v>
+      </c>
+      <c r="M80">
+        <v>19</v>
+      </c>
+      <c r="N80">
+        <v>0.84</v>
+      </c>
+      <c r="O80">
+        <v>0.16</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K81">
+        <v>0.005625879043600563</v>
+      </c>
+      <c r="L81">
+        <v>28</v>
+      </c>
+      <c r="M81">
+        <v>47</v>
+      </c>
+      <c r="N81">
+        <v>0.6</v>
+      </c>
+      <c r="O81">
+        <v>0.4</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K82">
+        <v>0.005336617405582923</v>
+      </c>
+      <c r="L82">
+        <v>13</v>
+      </c>
+      <c r="M82">
+        <v>22</v>
+      </c>
+      <c r="N82">
+        <v>0.59</v>
+      </c>
+      <c r="O82">
+        <v>0.41</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K83">
+        <v>0.003887269193391642</v>
+      </c>
+      <c r="L83">
+        <v>20</v>
+      </c>
+      <c r="M83">
+        <v>40</v>
+      </c>
+      <c r="N83">
+        <v>0.5</v>
+      </c>
+      <c r="O83">
+        <v>0.5</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K84">
+        <v>0.003248259860788863</v>
+      </c>
+      <c r="L84">
+        <v>14</v>
+      </c>
+      <c r="M84">
+        <v>32</v>
+      </c>
+      <c r="N84">
+        <v>0.44</v>
+      </c>
+      <c r="O84">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>4296</v>
       </c>
     </row>
   </sheetData>
